--- a/spliced/struggle/2023-03-25_18-16-05/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-16-05/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0978911519050598</v>
+        <v>3.110678434371948</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0056505035609006</v>
+        <v>1.813658952713013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0447458773851394</v>
+        <v>-1.52746856212616</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0774271711707115</v>
+        <v>-0.8225300312042236</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0310014113783836</v>
+        <v>4.032474040985107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1647808998823166</v>
+        <v>-1.342376351356506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1050688251852989</v>
+        <v>-0.784503698348999</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.385900497436523</v>
+        <v>-1.800067186355591</v>
       </c>
       <c r="C4" t="n">
-        <v>2.499965906143188</v>
+        <v>-0.266642689704895</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.4610505402088165</v>
+        <v>-0.7644978761672974</v>
       </c>
       <c r="B5" t="n">
-        <v>2.125047445297241</v>
+        <v>-0.5174028873443604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6215553879737854</v>
+        <v>0.9405797719955444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4665483236312866</v>
+        <v>0.00137444678694</v>
       </c>
       <c r="B6" t="n">
-        <v>2.866027116775513</v>
+        <v>-0.2606867551803589</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2889392673969269</v>
+        <v>3.316082000732422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.3239113092422485</v>
+        <v>1.413389444351196</v>
       </c>
       <c r="B7" t="n">
-        <v>2.975219249725342</v>
+        <v>1.9312504529953</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.32053792476654</v>
+        <v>2.964529037475586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.261742115020752</v>
+        <v>0.1264491081237793</v>
       </c>
       <c r="B8" t="n">
-        <v>7.791738986968994</v>
+        <v>3.219565391540528</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.358703374862671</v>
+        <v>-0.1656972020864486</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5487096905708313</v>
+        <v>1.272585034370422</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5149593949317932</v>
+        <v>0.1452332139015197</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5012149214744568</v>
+        <v>1.545947194099426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2260201424360275</v>
+        <v>5.68990421295166</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3822489380836487</v>
+        <v>0.4735732674598694</v>
       </c>
       <c r="C10" t="n">
-        <v>1.30664074420929</v>
+        <v>2.645351886749268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.796082973480225</v>
+        <v>1.004720568656921</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.143984317779541</v>
+        <v>-1.029460668563843</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.05878221988678</v>
+        <v>0.8364272117614746</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.969096899032593</v>
+        <v>-0.5496259927749634</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.04664945602417</v>
+        <v>1.477530360221863</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.536743640899658</v>
+        <v>-3.358078956604004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.110678434371948</v>
+        <v>1.193783402442932</v>
       </c>
       <c r="B13" t="n">
-        <v>1.813658952713013</v>
+        <v>5.348583221435547</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.52746856212616</v>
+        <v>-3.039818286895752</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.8225300312042236</v>
+        <v>0.0236710291355848</v>
       </c>
       <c r="B14" t="n">
-        <v>4.032474040985107</v>
+        <v>-0.4915938079357147</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.342376351356506</v>
+        <v>-0.5149593949317932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.784503698348999</v>
+        <v>-0.52702397108078</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.800067186355591</v>
+        <v>3.396258115768433</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.266642689704895</v>
+        <v>-1.487456917762756</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.7644978761672974</v>
+        <v>-0.113315500319004</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.5174028873443604</v>
+        <v>3.309820652008057</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9405797719955444</v>
+        <v>-0.5609270334243774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.00137444678694</v>
+        <v>2.999042987823486</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2606867551803589</v>
+        <v>0.8868235945701599</v>
       </c>
       <c r="C17" t="n">
-        <v>3.316082000732422</v>
+        <v>-1.359175205230713</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.413389444351196</v>
+        <v>8.29066276550293</v>
       </c>
       <c r="B18" t="n">
-        <v>1.9312504529953</v>
+        <v>-1.915215253829956</v>
       </c>
       <c r="C18" t="n">
-        <v>2.964529037475586</v>
+        <v>0.5499314665794373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1264491081237793</v>
+        <v>2.119396924972534</v>
       </c>
       <c r="B19" t="n">
-        <v>3.219565391540528</v>
+        <v>0.5285511612892151</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1656972020864486</v>
+        <v>0.0710130855441093</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.272585034370422</v>
+        <v>3.94298243522644</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1452332139015197</v>
+        <v>-0.3740022480487823</v>
       </c>
       <c r="C20" t="n">
-        <v>1.545947194099426</v>
+        <v>-1.55419385433197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.68990421295166</v>
+        <v>3.11648178100586</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4735732674598694</v>
+        <v>-1.741576790809631</v>
       </c>
       <c r="C21" t="n">
-        <v>2.645351886749268</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.004720568656921</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.029460668563843</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8364272117614746</v>
+        <v>3.701537847518921</v>
       </c>
     </row>
   </sheetData>
